--- a/Tables/table_Berkshire_Hathaway_Portfolio_data.xlsx
+++ b/Tables/table_Berkshire_Hathaway_Portfolio_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giorgio\Desktop\Master\THESIS CODES ETC\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92914288-6522-498D-8C1D-7E96E29C236F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44AD81F-967C-48F0-ABEB-3D6EE7D549C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="16201" windowHeight="9308"/>
+    <workbookView xWindow="2393" yWindow="2393" windowWidth="16199" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_Berkshire_Hathaway_Portfo" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,8 +560,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -607,7 +608,26 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -621,16 +641,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G13" totalsRowShown="0">
-  <autoFilter ref="A1:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G13" totalsRowShown="0">
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="MODEL"/>
-    <tableColumn id="2" name="RMSE TRAIN SET"/>
-    <tableColumn id="3" name="NLL TRAIN SET"/>
-    <tableColumn id="4" name="RMSE TEST SET"/>
-    <tableColumn id="5" name="NLL TEST SET"/>
-    <tableColumn id="6" name="alpha"/>
-    <tableColumn id="7" name="beta"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="MODEL"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="RMSE TRAIN SET" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NLL TRAIN SET" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="RMSE TEST SET" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NLL TEST SET" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="alpha" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="beta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -932,11 +952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="B2" sqref="B2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -946,6 +966,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="14.46484375" customWidth="1"/>
     <col min="5" max="5" width="12.796875" customWidth="1"/>
+    <col min="6" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -975,22 +996,22 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2.7401883799395401</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>8983.0689521162603</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>5.0860458789899097</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>-426.80168713313498</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.107673210092813</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0.883479118020146</v>
       </c>
     </row>
@@ -998,22 +1019,22 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>4.6760510110119196</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>22860.700386283199</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>8.11713614527015</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>3651.61207965424</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1021,22 +1042,22 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2.8950356537772302</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>8628.8527906354502</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>5.8237782981318702</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>2562.2500250778498</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.10500612714586199</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.88767647042546804</v>
       </c>
     </row>
@@ -1044,22 +1065,22 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4.6175779838579896</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>22647.842022510202</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>8.6622965384136794</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>6569.9684138202801</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1067,22 +1088,22 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2.7598779883209801</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>8832.4207535159203</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>5.2541244455251102</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>-663.882133044954</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.105940843720553</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.88613058572379599</v>
       </c>
     </row>
@@ -1090,22 +1111,22 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>4.5928661129124801</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>22783.835306886001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>8.1499027964517605</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>3462.7819159026499</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1113,22 +1134,22 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>3.0500050028558698</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>5439.7242234409296</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>9.8813280227475602</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>-2039.28399377647</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.12803665358734201</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.86118080625047799</v>
       </c>
     </row>
@@ -1136,22 +1157,22 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>4.8405770763275804</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>21332.719230090501</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>11.7679085285504</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>2133.6949714949201</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1159,22 +1180,22 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>4.5151937563704001</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>11774.028444154401</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>11.8988507585606</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>634.51909886506598</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.114622344985209</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.86747689284628504</v>
       </c>
     </row>
@@ -1182,22 +1203,22 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>5.6105911313791301</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>23644.0971568813</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>13.569094397072201</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>2517.2935814559701</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1205,22 +1226,22 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>3.3706303918368299</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>7329.9630075823097</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>7.0352692368458598</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>-1128.6083345945499</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.11433120671346</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.87704295957628198</v>
       </c>
     </row>
@@ -1228,22 +1249,22 @@
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>4.9217864113897702</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>22256.036481761599</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>8.9115666851191602</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>3220.4385460894</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0</v>
       </c>
     </row>
